--- a/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0851B30C-C0AE-43F0-9169-7F09E9C8DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C51D8A-17E8-4669-814E-DDE04C73AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{019B4213-E24B-4C1C-9D06-ABC233CF5683}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B27DAB29-6778-4D74-8B65-DE7E8CEED7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>9,73%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>7,08%</t>
+    <t>10,27%</t>
   </si>
   <si>
     <t>1,68%</t>
@@ -92,7 +92,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>5,6%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>No muy bien</t>
@@ -101,28 +101,28 @@
     <t>24,72%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>Bastante bien</t>
@@ -131,28 +131,28 @@
     <t>60,37%</t>
   </si>
   <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>54,53%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>Muy bien</t>
@@ -161,28 +161,28 @@
     <t>12,97%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,106 +194,103 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>58,1%</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -305,100 +302,106 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>6,22%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>4,28%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>24,66%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -407,217 +410,214 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
     <t>59,8%</t>
   </si>
   <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>67,49%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>25,76%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -638,73 +638,70 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>9,91%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>55,24%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -713,100 +710,103 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>3,68%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1221,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127EF202-496B-4AF7-B849-96A404A8DE25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E33558-EFDD-47D9-A7BD-73A37BF253D0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1608,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1617,13 +1617,13 @@
         <v>4110</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1632,13 +1632,13 @@
         <v>5642</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1653,13 @@
         <v>45638</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -1668,13 +1668,13 @@
         <v>44616</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -1683,13 +1683,13 @@
         <v>90254</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1704,13 @@
         <v>205964</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>183</v>
@@ -1719,13 +1719,13 @@
         <v>190619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>336</v>
@@ -1734,13 +1734,13 @@
         <v>396583</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1755,13 @@
         <v>101339</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -1770,13 +1770,13 @@
         <v>86074</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>139</v>
@@ -1785,13 +1785,13 @@
         <v>187413</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1859,13 +1859,13 @@
         <v>18590</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -1874,10 +1874,10 @@
         <v>9273</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>91</v>
@@ -1943,10 +1943,10 @@
         <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1961,13 @@
         <v>272267</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -1976,13 +1976,13 @@
         <v>226560</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -1991,13 +1991,13 @@
         <v>498827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2012,13 @@
         <v>124810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -2027,13 +2027,13 @@
         <v>85678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -2042,13 +2042,13 @@
         <v>210488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2116,13 +2116,13 @@
         <v>18915</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         <v>19290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -2146,13 +2146,13 @@
         <v>38204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2167,13 @@
         <v>53137</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2182,13 +2182,13 @@
         <v>52428</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -2197,7 +2197,7 @@
         <v>105565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>138</v>
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2696,13 +2696,13 @@
         <v>611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2711,13 +2711,13 @@
         <v>771</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>9508</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -2747,13 +2747,13 @@
         <v>7906</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -2762,13 +2762,13 @@
         <v>17414</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>10106</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -2798,13 +2798,13 @@
         <v>10513</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>20619</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2887,13 @@
         <v>48378</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -2902,13 +2902,13 @@
         <v>41045</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -2917,13 +2917,13 @@
         <v>89423</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2938,13 @@
         <v>217706</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H35" s="7">
         <v>233</v>
@@ -2953,13 +2953,13 @@
         <v>182969</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>420</v>
@@ -2968,13 +2968,13 @@
         <v>400675</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2989,13 @@
         <v>1123472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1234</v>
@@ -3004,13 +3004,13 @@
         <v>890705</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>2260</v>
@@ -3019,13 +3019,13 @@
         <v>2014178</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>445260</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>521</v>
@@ -3055,13 +3055,13 @@
         <v>387786</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>937</v>
@@ -3070,10 +3070,10 @@
         <v>833046</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>256</v>

--- a/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C51D8A-17E8-4669-814E-DDE04C73AD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66FFAE9-9EDC-4764-9B93-5A06DD0D77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B27DAB29-6778-4D74-8B65-DE7E8CEED7A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F3DFD73-445B-4AE5-AB9B-23AD8621923C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1221,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E33558-EFDD-47D9-A7BD-73A37BF253D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9880C57-2649-4D10-9F68-FF7E0AE0CF8A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A66FFAE9-9EDC-4764-9B93-5A06DD0D77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17956DAE-9905-4DD2-9422-D40220E9A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F3DFD73-445B-4AE5-AB9B-23AD8621923C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B542005-2393-4C40-ABE8-6E5410D41107}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,631 +77,634 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,73%</t>
+    <t>10,62%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>No muy bien</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>Bastante bien</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>Muy bien</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>No muy bien</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>Bastante bien</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>Muy bien</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>16,19%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>9,91%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>55,24%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -710,103 +713,100 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
   </si>
   <si>
     <t>59,28%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>26,9%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1221,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9880C57-2649-4D10-9F68-FF7E0AE0CF8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E3CAD7-8DCA-46D2-9CC8-E61EB0B956DC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1608,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -1617,13 +1617,13 @@
         <v>4110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -1632,13 +1632,13 @@
         <v>5642</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1653,13 @@
         <v>45638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -1668,13 +1668,13 @@
         <v>44616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -1683,13 +1683,13 @@
         <v>90254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1704,13 @@
         <v>205964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>183</v>
@@ -1719,13 +1719,13 @@
         <v>190619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>336</v>
@@ -1734,13 +1734,13 @@
         <v>396583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1755,13 @@
         <v>101339</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -1770,13 +1770,13 @@
         <v>86074</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>139</v>
@@ -1785,13 +1785,13 @@
         <v>187413</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1859,13 +1859,13 @@
         <v>18590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -1874,10 +1874,10 @@
         <v>9273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>91</v>
@@ -1943,10 +1943,10 @@
         <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,13 +1961,13 @@
         <v>272267</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
@@ -1976,13 +1976,13 @@
         <v>226560</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
@@ -1991,13 +1991,13 @@
         <v>498827</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2012,13 @@
         <v>124810</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -2027,13 +2027,13 @@
         <v>85678</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
@@ -2042,13 +2042,13 @@
         <v>210488</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2116,13 +2116,13 @@
         <v>18915</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         <v>19290</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -2146,13 +2146,13 @@
         <v>38204</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,13 +2167,13 @@
         <v>53137</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -2182,13 +2182,13 @@
         <v>52428</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
@@ -2197,7 +2197,7 @@
         <v>105565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>138</v>
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2696,13 +2696,13 @@
         <v>611</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2711,13 +2711,13 @@
         <v>771</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>9508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -2747,13 +2747,13 @@
         <v>7906</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M31" s="7">
         <v>29</v>
@@ -2762,13 +2762,13 @@
         <v>17414</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>10106</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -2798,13 +2798,13 @@
         <v>10513</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>20619</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2887,13 @@
         <v>48378</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>47</v>
@@ -2902,13 +2902,13 @@
         <v>41045</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>92</v>
@@ -2917,13 +2917,13 @@
         <v>89423</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2938,13 @@
         <v>217706</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H35" s="7">
         <v>233</v>
@@ -2953,13 +2953,13 @@
         <v>182969</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M35" s="7">
         <v>420</v>
@@ -2968,13 +2968,13 @@
         <v>400675</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2989,13 @@
         <v>1123472</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1234</v>
@@ -3004,13 +3004,13 @@
         <v>890705</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>2260</v>
@@ -3019,13 +3019,13 @@
         <v>2014178</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>445260</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>521</v>
@@ -3055,13 +3055,13 @@
         <v>387786</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M37" s="7">
         <v>937</v>
@@ -3070,10 +3070,10 @@
         <v>833046</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>256</v>

--- a/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17956DAE-9905-4DD2-9422-D40220E9A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092655BC-D6C2-4827-A270-E6D1AB23BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B542005-2393-4C40-ABE8-6E5410D41107}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5D5B139E-FE1A-4A0F-AFE5-CD4E7C4C435E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="263">
   <si>
     <t>Población según como se adapta su horario laboral a sus compromisos sociales y familiares fuera del trabajo en 2023 (Tasa respuesta: 42,42%)</t>
   </si>
@@ -65,748 +65,763 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada bien</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>No muy bien</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>Bastante bien</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>Muy bien</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>29,42%</t>
-  </si>
-  <si>
-    <t>Bastante bien</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>Muy bien</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1221,8 +1236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E3CAD7-8DCA-46D2-9CC8-E61EB0B956DC}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2308AC31-9A33-4302-94CE-14F94E40136A}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1342,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1679</v>
+        <v>1762</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1357,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1310</v>
+        <v>1209</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1372,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2989</v>
+        <v>2972</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1393,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>21309</v>
+        <v>22639</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1408,7 +1423,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>9405</v>
+        <v>8573</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1423,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>30713</v>
+        <v>31212</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1444,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>52047</v>
+        <v>52567</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>44946</v>
+        <v>38902</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>33</v>
@@ -1474,7 +1489,7 @@
         <v>55</v>
       </c>
       <c r="N6" s="7">
-        <v>96992</v>
+        <v>91470</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1495,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>11181</v>
+        <v>10819</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1510,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>35990</v>
+        <v>32553</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
@@ -1525,7 +1540,7 @@
         <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>47170</v>
+        <v>43372</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1546,7 +1561,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>86215</v>
+        <v>87787</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1561,7 +1576,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1576,7 +1591,7 @@
         <v>102</v>
       </c>
       <c r="N8" s="7">
-        <v>177865</v>
+        <v>169026</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1599,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1532</v>
+        <v>1349</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1614,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>4110</v>
+        <v>3685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1629,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>5642</v>
+        <v>5034</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1650,7 +1665,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>45638</v>
+        <v>45719</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1665,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>44616</v>
+        <v>40522</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1680,7 +1695,7 @@
         <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>90254</v>
+        <v>86241</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1701,7 +1716,7 @@
         <v>153</v>
       </c>
       <c r="D11" s="7">
-        <v>205964</v>
+        <v>200092</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1716,7 +1731,7 @@
         <v>183</v>
       </c>
       <c r="I11" s="7">
-        <v>190619</v>
+        <v>172005</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -1731,7 +1746,7 @@
         <v>336</v>
       </c>
       <c r="N11" s="7">
-        <v>396583</v>
+        <v>372096</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>74</v>
@@ -1752,7 +1767,7 @@
         <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>101339</v>
+        <v>103183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>77</v>
@@ -1767,7 +1782,7 @@
         <v>73</v>
       </c>
       <c r="I12" s="7">
-        <v>86074</v>
+        <v>136704</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -1782,7 +1797,7 @@
         <v>139</v>
       </c>
       <c r="N12" s="7">
-        <v>187413</v>
+        <v>239887</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>83</v>
@@ -1803,7 +1818,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="7">
-        <v>354472</v>
+        <v>350343</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1818,7 +1833,7 @@
         <v>300</v>
       </c>
       <c r="I13" s="7">
-        <v>325419</v>
+        <v>352916</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1833,7 +1848,7 @@
         <v>550</v>
       </c>
       <c r="N13" s="7">
-        <v>679891</v>
+        <v>703258</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -1856,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>18590</v>
+        <v>18002</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1871,31 +1886,31 @@
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>9273</v>
+        <v>8636</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
       </c>
       <c r="N14" s="7">
-        <v>27863</v>
+        <v>26639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,46 +1922,46 @@
         <v>58</v>
       </c>
       <c r="D15" s="7">
-        <v>62075</v>
+        <v>60967</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>74</v>
       </c>
       <c r="I15" s="7">
-        <v>54152</v>
+        <v>50465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>132</v>
       </c>
       <c r="N15" s="7">
-        <v>116227</v>
+        <v>111431</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,46 +1973,46 @@
         <v>271</v>
       </c>
       <c r="D16" s="7">
-        <v>272267</v>
+        <v>258648</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>333</v>
       </c>
       <c r="I16" s="7">
-        <v>226560</v>
+        <v>209487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>604</v>
       </c>
       <c r="N16" s="7">
-        <v>498827</v>
+        <v>468135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,46 +2024,46 @@
         <v>126</v>
       </c>
       <c r="D17" s="7">
-        <v>124810</v>
+        <v>122558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
       </c>
       <c r="I17" s="7">
-        <v>85678</v>
+        <v>81516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>252</v>
       </c>
       <c r="N17" s="7">
-        <v>210488</v>
+        <v>204074</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2075,7 @@
         <v>471</v>
       </c>
       <c r="D18" s="7">
-        <v>477742</v>
+        <v>460175</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -2075,7 +2090,7 @@
         <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>375663</v>
+        <v>350104</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -2090,7 +2105,7 @@
         <v>1016</v>
       </c>
       <c r="N18" s="7">
-        <v>853405</v>
+        <v>810279</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -2104,7 +2119,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2113,46 +2128,46 @@
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>18915</v>
+        <v>17912</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>19290</v>
+        <v>16468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
       </c>
       <c r="N19" s="7">
-        <v>38204</v>
+        <v>34379</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,46 +2179,46 @@
         <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>53137</v>
+        <v>50597</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
       </c>
       <c r="I20" s="7">
-        <v>52428</v>
+        <v>47730</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>129</v>
       </c>
       <c r="N20" s="7">
-        <v>105565</v>
+        <v>98328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,46 +2230,46 @@
         <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>374795</v>
+        <v>553074</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>434</v>
       </c>
       <c r="I21" s="7">
-        <v>282307</v>
+        <v>284125</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>758</v>
       </c>
       <c r="N21" s="7">
-        <v>657102</v>
+        <v>837198</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,13 +2281,13 @@
         <v>129</v>
       </c>
       <c r="D22" s="7">
-        <v>128876</v>
+        <v>124684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>151</v>
@@ -2281,7 +2296,7 @@
         <v>180</v>
       </c>
       <c r="I22" s="7">
-        <v>111530</v>
+        <v>104453</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2296,7 +2311,7 @@
         <v>309</v>
       </c>
       <c r="N22" s="7">
-        <v>240407</v>
+        <v>229137</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>155</v>
@@ -2317,7 +2332,7 @@
         <v>521</v>
       </c>
       <c r="D23" s="7">
-        <v>575723</v>
+        <v>746266</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2332,7 +2347,7 @@
         <v>710</v>
       </c>
       <c r="I23" s="7">
-        <v>465554</v>
+        <v>452776</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2347,7 +2362,7 @@
         <v>1231</v>
       </c>
       <c r="N23" s="7">
-        <v>1041278</v>
+        <v>1199042</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2370,7 +2385,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>7662</v>
+        <v>7232</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>159</v>
@@ -2385,7 +2400,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>7062</v>
+        <v>6510</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>162</v>
@@ -2400,7 +2415,7 @@
         <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>14724</v>
+        <v>13743</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>165</v>
@@ -2421,7 +2436,7 @@
         <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>35388</v>
+        <v>32786</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>168</v>
@@ -2436,31 +2451,31 @@
         <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>21757</v>
+        <v>19927</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
       </c>
       <c r="N25" s="7">
-        <v>57145</v>
+        <v>52713</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,10 +2487,10 @@
         <v>237</v>
       </c>
       <c r="D26" s="7">
-        <v>208893</v>
+        <v>194131</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>177</v>
@@ -2487,7 +2502,7 @@
         <v>241</v>
       </c>
       <c r="I26" s="7">
-        <v>138368</v>
+        <v>126891</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>179</v>
@@ -2502,7 +2517,7 @@
         <v>478</v>
       </c>
       <c r="N26" s="7">
-        <v>347261</v>
+        <v>321022</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>182</v>
@@ -2523,7 +2538,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="7">
-        <v>68948</v>
+        <v>66155</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>185</v>
@@ -2538,7 +2553,7 @@
         <v>101</v>
       </c>
       <c r="I27" s="7">
-        <v>58001</v>
+        <v>53846</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>188</v>
@@ -2553,7 +2568,7 @@
         <v>173</v>
       </c>
       <c r="N27" s="7">
-        <v>126949</v>
+        <v>120002</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>191</v>
@@ -2574,7 +2589,7 @@
         <v>357</v>
       </c>
       <c r="D28" s="7">
-        <v>320891</v>
+        <v>300304</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -2589,7 +2604,7 @@
         <v>387</v>
       </c>
       <c r="I28" s="7">
-        <v>225189</v>
+        <v>207175</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -2604,7 +2619,7 @@
         <v>744</v>
       </c>
       <c r="N28" s="7">
-        <v>546080</v>
+        <v>507479</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -2678,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>199</v>
@@ -2693,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>201</v>
@@ -2708,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>203</v>
@@ -2726,10 +2741,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="7">
-        <v>9508</v>
+        <v>7131</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>205</v>
@@ -2744,7 +2759,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="7">
-        <v>7906</v>
+        <v>7311</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>208</v>
@@ -2756,10 +2771,10 @@
         <v>210</v>
       </c>
       <c r="M31" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N31" s="7">
-        <v>17414</v>
+        <v>14442</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>211</v>
@@ -2780,7 +2795,7 @@
         <v>15</v>
       </c>
       <c r="D32" s="7">
-        <v>10106</v>
+        <v>9646</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>214</v>
@@ -2795,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="7">
-        <v>10513</v>
+        <v>9874</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>217</v>
@@ -2810,7 +2825,7 @@
         <v>35</v>
       </c>
       <c r="N32" s="7">
-        <v>20619</v>
+        <v>19520</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>220</v>
@@ -2828,10 +2843,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>49</v>
@@ -2846,7 +2861,7 @@
         <v>37</v>
       </c>
       <c r="I33" s="7">
-        <v>19030</v>
+        <v>17751</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>49</v>
@@ -2858,10 +2873,10 @@
         <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N33" s="7">
-        <v>38803</v>
+        <v>34694</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>49</v>
@@ -2875,55 +2890,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>48378</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H34" s="7">
-        <v>47</v>
-      </c>
-      <c r="I34" s="7">
-        <v>41045</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="K34" s="7" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>89423</v>
+        <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +2945,47 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>217706</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
-        <v>233</v>
-      </c>
-      <c r="I35" s="7">
-        <v>182969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>400675</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,49 +2994,47 @@
         <v>29</v>
       </c>
       <c r="C36" s="7">
-        <v>1026</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>1123472</v>
+        <v>1598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="H36" s="7">
-        <v>1234</v>
-      </c>
-      <c r="I36" s="7">
-        <v>890705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
-        <v>2260</v>
+        <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>2014178</v>
+        <v>1598</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,49 +3043,47 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>445260</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H37" s="7">
-        <v>521</v>
-      </c>
-      <c r="I37" s="7">
-        <v>387786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>833046</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,63 +3092,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>45</v>
+      </c>
+      <c r="D39" s="7">
+        <v>46258</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" s="7">
+        <v>47</v>
+      </c>
+      <c r="I39" s="7">
+        <v>36509</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M39" s="7">
+        <v>92</v>
+      </c>
+      <c r="N39" s="7">
+        <v>82767</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="7">
+        <v>187</v>
+      </c>
+      <c r="D40" s="7">
+        <v>212874</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="7">
+        <v>233</v>
+      </c>
+      <c r="I40" s="7">
+        <v>167782</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" s="7">
+        <v>420</v>
+      </c>
+      <c r="N40" s="7">
+        <v>380657</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1026</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1267240</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1234</v>
+      </c>
+      <c r="I41" s="7">
+        <v>838722</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2260</v>
+      </c>
+      <c r="N41" s="7">
+        <v>2105962</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>416</v>
+      </c>
+      <c r="D42" s="7">
+        <v>437044</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H42" s="7">
+        <v>521</v>
+      </c>
+      <c r="I42" s="7">
+        <v>418948</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42" s="7">
+        <v>937</v>
+      </c>
+      <c r="N42" s="7">
+        <v>855992</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1674</v>
       </c>
-      <c r="D38" s="7">
-        <v>1834816</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1963416</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>2035</v>
       </c>
-      <c r="I38" s="7">
-        <v>1502505</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1461961</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>3709</v>
       </c>
-      <c r="N38" s="7">
-        <v>3337322</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>257</v>
+      <c r="N43" s="7">
+        <v>3425377</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
